--- a/public/application/files/jasper/templates/recetaresdetallada2.xlsx
+++ b/public/application/files/jasper/templates/recetaresdetallada2.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-35980" yWindow="0" windowWidth="25500" windowHeight="19680" tabRatio="500"/>
+    <workbookView xWindow="-40" yWindow="0" windowWidth="25040" windowHeight="14120" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" calcMode="manual" concurrentCalc="0"/>
+  <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>{compania:nombre}</t>
   </si>
@@ -49,6 +49,12 @@
   </si>
   <si>
     <t>Recetas detalle</t>
+  </si>
+  <si>
+    <t>{col:ocho}</t>
+  </si>
+  <si>
+    <t>{col:nueve}</t>
   </si>
 </sst>
 </file>
@@ -127,7 +133,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="13">
+  <cellStyleXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -141,40 +147,48 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="13">
+  <cellStyles count="15">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -504,65 +518,73 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="28">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:11" ht="28">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
     </row>
-    <row r="2" spans="1:9" ht="18">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:11" ht="18">
+      <c r="A2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
     </row>
-    <row r="3" spans="1:9" ht="18">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:11" ht="18">
+      <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
     </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
+    <row r="4" spans="1:11">
+      <c r="A4" s="6"/>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -586,14 +608,20 @@
       <c r="I5" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="J5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="B5:D5"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A4:I4"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
